--- a/app/erp/module/gl_report_chart/excel/gl_report_chart_template_v01.xlsx
+++ b/app/erp/module/gl_report_chart/excel/gl_report_chart_template_v01.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\yeelim_erp_uat\app\erp\module\gl_report_chart\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="21075" windowHeight="9525"/>
   </bookViews>
@@ -706,6 +711,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -753,7 +761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,7 +796,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1077,6 +1085,9 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.25" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>